--- a/dist/temp/saved/temp.xlsx
+++ b/dist/temp/saved/temp.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_dev\Survey\2.0\Survey-Desktop\neutralinojs\dist\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FED612-62C1-411B-9CD4-B04D52BBBB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBFEA88-2B35-455D-BEC2-0C153D7FB8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="330" windowWidth="23535" windowHeight="13440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2655" yWindow="240" windowWidth="23520" windowHeight="13440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
     <sheet name="Relatório Fotográfico" sheetId="3" r:id="rId2"/>
     <sheet name="_dados" sheetId="2" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>E-mail</t>
   </si>
@@ -2030,8 +2031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81BEFE2-10F8-4631-B9C6-8202EDEAD03E}">
   <dimension ref="B2:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2102,10 +2103,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53F81FB-7DEF-40A4-B9B2-22CA604009ED}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2113,29 +2114,34 @@
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2144,4 +2150,19 @@
     <customPr name="SheetId" r:id="rId1"/>
   </customProperties>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E7C109-5D33-4905-BCD6-5E7A848C690D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <customProperties>
+    <customPr name="SheetId" r:id="rId1"/>
+  </customProperties>
+</worksheet>
 </file>